--- a/assignments/Excel lab 2023-Assignment 4- Refrence function & What if analysis.xlsx
+++ b/assignments/Excel lab 2023-Assignment 4- Refrence function & What if analysis.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/archiespatil/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Humna\Documents\GitHub\mis201\assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E28BABA-663C-9843-84C9-AD202BA46C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D95E3A-D930-4697-BF8F-8596FD3D217B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" xr2:uid="{D30AC0E5-DEDD-F84A-80E0-6A7288FD1CD5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{D30AC0E5-DEDD-F84A-80E0-6A7288FD1CD5}"/>
   </bookViews>
   <sheets>
     <sheet name="PROBLEM 1" sheetId="2" r:id="rId1"/>
     <sheet name="PROBLEM 2" sheetId="3" r:id="rId2"/>
     <sheet name="PROBLEM 3" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -463,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -476,21 +474,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -807,62 +800,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235D4D63-CDBB-E742-9CD4-45D71DE049C4}">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.1640625" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
@@ -881,30 +874,39 @@
       <c r="F6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="12" t="s">
         <v>34</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="2"/>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="12" t="s">
         <v>37</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="3">
         <v>20</v>
       </c>
       <c r="C7" s="3">
         <v>95</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="D7" s="3">
+        <f>VLOOKUP(B7,$I$8:$K$17,3,TRUE)</f>
+        <v>100</v>
+      </c>
+      <c r="E7" s="3" t="str">
+        <f>VLOOKUP(C7,$M$8:$O$15,3,TRUE)</f>
+        <v>A+</v>
+      </c>
+      <c r="F7" s="3" t="str">
+        <f>HLOOKUP(D7,$J$20:$S$21,2,TRUE)</f>
+        <v>PLATINUM</v>
+      </c>
       <c r="I7" s="4" t="s">
         <v>2</v>
       </c>
@@ -924,19 +926,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="3">
         <v>17</v>
       </c>
       <c r="C8" s="3">
         <v>83</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="D8" s="3">
+        <f t="shared" ref="D8:D27" si="0">VLOOKUP(B8,$I$8:$K$17,3,TRUE)</f>
+        <v>90</v>
+      </c>
+      <c r="E8" s="3" t="str">
+        <f t="shared" ref="E8:E27" si="1">VLOOKUP(C8,$M$8:$O$15,3,TRUE)</f>
+        <v>B+</v>
+      </c>
+      <c r="F8" s="3" t="str">
+        <f t="shared" ref="F8:F27" si="2">HLOOKUP(D8,$J$20:$S$21,2,TRUE)</f>
+        <v>GOLD</v>
+      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
@@ -956,19 +967,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="3">
         <v>12</v>
       </c>
       <c r="C9" s="3">
         <v>76</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>B+</v>
+      </c>
+      <c r="F9" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>SILVER</v>
+      </c>
       <c r="I9" s="3">
         <v>3</v>
       </c>
@@ -988,19 +1008,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="3">
         <v>19</v>
       </c>
       <c r="C10" s="3">
         <v>99</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>A+</v>
+      </c>
+      <c r="F10" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>PLATINUM</v>
+      </c>
       <c r="I10" s="3">
         <v>5</v>
       </c>
@@ -1020,19 +1049,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="3">
         <v>8</v>
       </c>
       <c r="C11" s="3">
         <v>64</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>C+</v>
+      </c>
+      <c r="F11" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>BRONZE</v>
+      </c>
       <c r="I11" s="3">
         <v>7</v>
       </c>
@@ -1052,19 +1090,28 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="3">
         <v>15</v>
       </c>
       <c r="C12" s="3">
         <v>72</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="E12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+      <c r="F12" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>GOLD</v>
+      </c>
       <c r="I12" s="3">
         <v>9</v>
       </c>
@@ -1084,199 +1131,267 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="3">
         <v>11</v>
       </c>
       <c r="C13" s="3">
         <v>58</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="I13" s="12">
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>C+</v>
+      </c>
+      <c r="F13" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>SILVER</v>
+      </c>
+      <c r="I13" s="3">
         <v>11</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="3">
         <v>12</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="5">
         <v>60</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="3">
         <v>76</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="3">
         <v>84</v>
       </c>
-      <c r="O13" s="15" t="s">
+      <c r="O13" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="3">
         <v>12</v>
       </c>
       <c r="C14" s="3">
         <v>49</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="I14" s="12">
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+      <c r="F14" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>SILVER</v>
+      </c>
+      <c r="I14" s="3">
         <v>13</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="3">
         <v>14</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="5">
         <v>70</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="3">
         <v>85</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="3">
         <v>94</v>
       </c>
-      <c r="O14" s="15" t="s">
+      <c r="O14" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="3">
         <v>3</v>
       </c>
       <c r="C15" s="3">
         <v>36</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="I15" s="12">
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+      <c r="F15" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>NONE</v>
+      </c>
+      <c r="I15" s="3">
         <v>15</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="3">
         <v>16</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="5">
         <v>80</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15" s="3">
         <v>95</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="3">
         <v>100</v>
       </c>
-      <c r="O15" s="15" t="s">
+      <c r="O15" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="3">
         <v>18</v>
       </c>
       <c r="C16" s="3">
         <v>89</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="I16" s="12">
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="E16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+      <c r="F16" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>GOLD</v>
+      </c>
+      <c r="I16" s="3">
         <v>17</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="3">
         <v>18</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="5">
         <v>90</v>
       </c>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="17"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O16" s="13"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="3">
         <v>20</v>
       </c>
       <c r="C17" s="3">
         <v>100</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="I17" s="12">
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>A+</v>
+      </c>
+      <c r="F17" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>PLATINUM</v>
+      </c>
+      <c r="I17" s="3">
         <v>19</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="3">
         <v>20</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="5">
         <v>100</v>
       </c>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="17"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O17" s="13"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="3">
         <v>14</v>
       </c>
       <c r="C18" s="3">
         <v>79</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="E18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>B+</v>
+      </c>
+      <c r="F18" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>SILVER</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="3">
         <v>9</v>
       </c>
       <c r="C19" s="3">
         <v>43</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="I19" s="20" t="s">
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E19" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+      <c r="F19" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>BRONZE</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="15"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="3">
         <v>13</v>
       </c>
       <c r="C20" s="3">
         <v>93</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="E20" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+      <c r="F20" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>SILVER</v>
+      </c>
       <c r="I20" s="6" t="s">
         <v>35</v>
       </c>
@@ -1311,19 +1426,28 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="3">
         <v>13</v>
       </c>
       <c r="C21" s="3">
         <v>84</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="E21" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>B+</v>
+      </c>
+      <c r="F21" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>SILVER</v>
+      </c>
       <c r="I21" s="6" t="s">
         <v>41</v>
       </c>
@@ -1358,91 +1482,145 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="3">
         <v>19</v>
       </c>
       <c r="C22" s="3">
         <v>97</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>A+</v>
+      </c>
+      <c r="F22" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>PLATINUM</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="3">
         <v>20</v>
       </c>
       <c r="C23" s="3">
         <v>88</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D23" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+      <c r="F23" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>PLATINUM</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="3">
         <v>18</v>
       </c>
       <c r="C24" s="3">
         <v>85</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D24" s="3">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="E24" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+      <c r="F24" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>GOLD</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="3">
         <v>7</v>
       </c>
       <c r="C25" s="3">
         <v>28</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D25" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E25" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+      <c r="F25" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>BRONZE</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="3">
         <v>18</v>
       </c>
       <c r="C26" s="3">
         <v>100</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D26" s="3">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="E26" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>A+</v>
+      </c>
+      <c r="F26" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>GOLD</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="3">
         <v>13</v>
       </c>
       <c r="C27" s="3">
         <v>81</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D27" s="3">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="E27" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>B+</v>
+      </c>
+      <c r="F27" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>SILVER</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -1460,13 +1638,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6C36C1-E21E-1848-BDE7-0135914E9511}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.33203125" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
@@ -1476,34 +1654,27 @@
     <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>29</v>
       </c>
@@ -1516,11 +1687,8 @@
       <c r="D4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>54</v>
       </c>
@@ -1533,11 +1701,8 @@
       <c r="D5" s="3">
         <v>872</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>55</v>
       </c>
@@ -1550,11 +1715,8 @@
       <c r="D6" s="3">
         <v>954</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>56</v>
       </c>
@@ -1567,11 +1729,8 @@
       <c r="D7" s="3">
         <v>999</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>57</v>
       </c>
@@ -1584,11 +1743,8 @@
       <c r="D8" s="3">
         <v>774</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>58</v>
       </c>
@@ -1601,15 +1757,11 @@
       <c r="D9" s="3">
         <v>888</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>59</v>
       </c>
@@ -1625,184 +1777,165 @@
       <c r="F10" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="G10" s="2" t="str">
+        <f>INDEX(A5:D28,4,1)</f>
+        <v>MADISON</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="3">
         <v>986322</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="3">
         <v>975</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="G11" s="2">
+        <f>INDEX(A5:D28,18,4)</f>
+        <v>838</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="3">
         <v>665342</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="3">
         <v>890</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="G12" s="2" t="str">
+        <f>INDEX(A5:D28,11,3)</f>
+        <v>MARKETING</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="3">
         <v>132456</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="3">
         <v>932</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="G13" s="2">
+        <f>INDEX(A5:D28,13,2)</f>
+        <v>177654</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="3">
         <v>776534</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="3">
         <v>921</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="G14" s="2">
+        <f>INDEX(A5:D28,7,2)</f>
+        <v>986322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="3">
         <v>998732</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="3">
         <v>825</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="3">
         <v>144567</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="3">
         <v>771</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="3">
         <v>177654</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="3">
         <v>993</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="3">
         <v>188623</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="3">
         <v>945</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="3">
         <v>283456</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="3">
         <v>807</v>
       </c>
       <c r="F19" s="6" t="s">
@@ -1811,156 +1944,165 @@
       <c r="G19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="3">
         <v>283937</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="3">
         <v>902</v>
       </c>
       <c r="F20" s="6">
         <v>665342</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+      <c r="G20" s="2">
+        <f>MATCH(F20,B5:B28,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="3">
         <v>435267</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="3">
         <v>706</v>
       </c>
       <c r="F21" s="6">
         <v>188623</v>
       </c>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
+      <c r="G21" s="2">
+        <f>MATCH(F21,B5:B28,0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="3">
         <v>983540</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="3">
         <v>838</v>
       </c>
       <c r="F22" s="6">
         <v>435267</v>
       </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
+      <c r="G22" s="2">
+        <f>MATCH(F22,B5:B28,0)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="3">
         <v>441243</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="3">
         <v>929</v>
       </c>
       <c r="F23" s="6">
         <v>637453</v>
       </c>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
+      <c r="G23" s="2">
+        <f>MATCH(F23,B5:B28,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="3">
         <v>664822</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="3">
         <v>954</v>
       </c>
       <c r="F24" s="6">
         <v>439856</v>
       </c>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
+      <c r="G24" s="2">
+        <f>MATCH(F24,B5:B28,0)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="3">
         <v>998342</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="3">
         <v>777</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="3">
         <v>439856</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="3">
         <v>559010</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="3">
         <v>755</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="3">
         <v>101064</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="3">
         <v>722</v>
       </c>
     </row>
@@ -1971,19 +2113,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C88F94D-0F29-2B46-A698-24AF8CB92F66}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>106</v>
       </c>
@@ -1995,15 +2137,14 @@
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
-      <c r="J1" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B4" s="6"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>91</v>
       </c>
@@ -2011,7 +2152,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -2019,7 +2160,7 @@
         <v>72450</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>92</v>
       </c>
@@ -2027,7 +2168,7 @@
         <v>47350</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>93</v>
       </c>
@@ -2035,7 +2176,7 @@
         <v>18932</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>94</v>
       </c>
@@ -2043,7 +2184,7 @@
         <v>37540</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>95</v>
       </c>
@@ -2051,7 +2192,7 @@
         <v>53123</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>96</v>
       </c>
@@ -2059,7 +2200,7 @@
         <v>77899</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>97</v>
       </c>
@@ -2067,49 +2208,55 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B13" s="10">
         <v>64350</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B14" s="10">
         <v>81990</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B15" s="10">
         <v>15430</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B16" s="10">
         <v>78950</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="8"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="19">
+        <f>55000-AVERAGE(B6:B16)</f>
+        <v>2907.8181818181838</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B18" s="24"/>
+      <c r="B18" s="18">
+        <f>AVERAGE(B6:B16)</f>
+        <v>52092.181818181816</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assignments/Excel lab 2023-Assignment 4- Refrence function & What if analysis.xlsx
+++ b/assignments/Excel lab 2023-Assignment 4- Refrence function & What if analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Humna\Documents\GitHub\mis201\assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D95E3A-D930-4697-BF8F-8596FD3D217B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71A5DB9-58F1-4BE6-A47D-467E6C8E2586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{D30AC0E5-DEDD-F84A-80E0-6A7288FD1CD5}"/>
   </bookViews>
@@ -2115,8 +2115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C88F94D-0F29-2B46-A698-24AF8CB92F66}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2245,8 +2245,7 @@
         <v>104</v>
       </c>
       <c r="B17" s="19">
-        <f>55000-AVERAGE(B6:B16)</f>
-        <v>2907.8181818181838</v>
+        <v>86986</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -2254,11 +2253,15 @@
         <v>103</v>
       </c>
       <c r="B18" s="18">
-        <f>AVERAGE(B6:B16)</f>
-        <v>52092.181818181816</v>
+        <v>55000</v>
       </c>
     </row>
   </sheetData>
+  <scenarios current="0">
+    <scenario name="change aver" locked="1" count="1" user="Humna" comment="Created by Humna on 10/11/2023">
+      <inputCells r="B17" val="2907.81818181818"/>
+    </scenario>
+  </scenarios>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>